--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Class 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Class 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,32 +479,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EMTL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ADC</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EMTL</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -515,19 +516,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EMTL</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>CO</t>
@@ -535,12 +536,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ADC</t>
+          <t>IPR</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>FP</t>
         </is>
       </c>
     </row>
@@ -552,32 +553,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>EMTL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>ADC</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EMTL</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>EMTL</t>
         </is>
       </c>
     </row>
@@ -589,32 +590,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ADC LAB</t>
+          <t>ppp lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADC LAB</t>
+          <t>ppp lab</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADC LAB</t>
+          <t>ppp lab</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>ADC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>EMTL</t>
         </is>
       </c>
     </row>
@@ -626,32 +627,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AC LAB</t>
+          <t>adc lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AC LAB</t>
+          <t>adc lab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AC LAB</t>
+          <t>adc lab</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>ADC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ADC</t>
+          <t>ACC</t>
         </is>
       </c>
     </row>
@@ -663,32 +664,310 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PPP LAB</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PPP LAB</t>
+          <t>ADC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PPP LAB</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>10:00 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>11:00 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>12:00 PM - 01:00 PM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>01:40 PM - 02:40 PM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>02:40 PM - 03:40 PM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>03:40 PM - 04:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CO</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EMTL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ac lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EMTL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adc lab</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>adc lab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>adc lab</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EMTL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EMTL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ppp lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ppp lab</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ppp lab</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ADC</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>ACC</t>
         </is>
       </c>
     </row>
